--- a/test_통계.xlsx
+++ b/test_통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDD5277-054A-4588-9C2A-9D9817AB3DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C79AF3-DE70-4B9C-9B54-F6F85A86D9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>16w</t>
+  </si>
+  <si>
+    <t>17w</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,6 +559,23 @@
       </c>
       <c r="E4">
         <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1087</v>
+      </c>
+      <c r="C5">
+        <v>835</v>
+      </c>
+      <c r="D5">
+        <v>233</v>
+      </c>
+      <c r="E5">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -566,10 +586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,6 +662,23 @@
         <v>4.8609999999999998</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>4.92</v>
+      </c>
+      <c r="C5">
+        <v>4.88</v>
+      </c>
+      <c r="D5">
+        <v>4.78</v>
+      </c>
+      <c r="E5">
+        <v>4.91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
